--- a/scripts/Loos_etal_2017_K_at_Stations_vs_mymodel.xlsx
+++ b/scripts/Loos_etal_2017_K_at_Stations_vs_mymodel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greig\Sync\PSF\EwE\Georgia Strait 2021\LTL_model\SCRIPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greig\Documents\github\Ecosystem-Model-Data-Framework\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0C4195-DF72-483B-AAE0-44F3511A2495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269FD151-4F35-4CC2-B670-AFA75AE7BDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4773,39 +4773,39 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>60</v>
       </c>
@@ -4819,37 +4819,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="17.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="11.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" style="2" customWidth="1"/>
-    <col min="7" max="9" width="14.81640625" style="2" customWidth="1"/>
-    <col min="10" max="13" width="13.7265625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.1796875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.7265625" style="2"/>
-    <col min="20" max="20" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.453125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="17.81640625" style="2" customWidth="1"/>
-    <col min="23" max="27" width="17.26953125" style="2" customWidth="1"/>
-    <col min="28" max="29" width="8.7265625" style="2"/>
-    <col min="30" max="30" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.1796875" style="2" customWidth="1"/>
-    <col min="32" max="16384" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="17.140625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.85546875" style="2" customWidth="1"/>
+    <col min="10" max="13" width="13.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="2"/>
+    <col min="20" max="20" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" style="2" customWidth="1"/>
+    <col min="23" max="27" width="17.28515625" style="2" customWidth="1"/>
+    <col min="28" max="29" width="8.7109375" style="2"/>
+    <col min="30" max="30" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.140625" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -5291,7 +5291,7 @@
       <c r="W7" s="3"/>
       <c r="AE7" s="4"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="H23" s="5" t="s">
         <v>42</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O24" s="1" t="s">
         <v>41</v>
       </c>
@@ -6219,12 +6219,12 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC31" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I34" s="2" t="s">
         <v>68</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H35" s="2" t="s">
         <v>66</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I36" s="2">
         <v>0.28799999999999998</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I37" s="2">
         <v>0.16900000000000001</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I38" s="2">
         <v>0.24249999999999999</v>
       </c>
@@ -6267,12 +6267,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I39" s="2">
         <v>0.98049999999999993</v>
       </c>
     </row>
-    <row r="40" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I40" s="2">
         <v>0.18149999999999999</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I41" s="2">
         <v>0.25800000000000001</v>
       </c>
@@ -6288,12 +6288,12 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I42" s="2">
         <v>0.65549999999999997</v>
       </c>
     </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I43" s="2">
         <v>0.2205</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="44" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I44" s="2">
         <v>0.33750000000000002</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="45" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I45" s="2">
         <v>0.48449999999999999</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="46" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H46" s="2" t="s">
         <v>67</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="47" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I47" s="2">
         <v>0.23200000000000001</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="48" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I48" s="2">
         <v>0.28849999999999998</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I50" s="1">
         <v>1.9285000000000001</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I51" s="2">
         <v>0.34550000000000003</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I52" s="2">
         <v>0.56399999999999995</v>
       </c>
@@ -6368,12 +6368,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I53" s="2">
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I54" s="2">
         <v>0.21199999999999999</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I55" s="2">
         <v>0.41349999999999998</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I56" s="2">
         <v>0.47399999999999998</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I57" s="2">
         <v>0.2535</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I58" s="2">
         <v>0.4</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I59" s="2">
         <v>0.39050000000000001</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I60" s="2">
         <v>0.38400000000000001</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I61" s="2">
         <v>0.26600000000000001</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I62" s="2">
         <v>0.4415</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I63" s="2">
         <v>0.25600000000000001</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I64" s="2">
         <v>0.23699999999999999</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I65" s="2">
         <v>0.28100000000000003</v>
       </c>
